--- a/tables/idioms1_cond1.xlsx
+++ b/tables/idioms1_cond1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Вуз\Диплом\Program\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE5FE97-B650-4EE7-91DF-E5FFEAD409A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60385CCE-E984-455C-93C2-74B343821E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>Сутки напролет</t>
   </si>
   <si>
-    <t>На краю света</t>
-  </si>
-  <si>
-    <t>Смех сквозь слезы</t>
-  </si>
-  <si>
     <t>Говорить на разных языках</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>Глаза в кучу</t>
   </si>
   <si>
-    <t>В семье не без урода</t>
-  </si>
-  <si>
     <t>Пробел в знаниях</t>
   </si>
   <si>
@@ -102,64 +93,73 @@
     <t>Сжатые сроки</t>
   </si>
   <si>
-    <t>idioms/idioms_1/БЧ_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/ГНРЯ_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/МНБК_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/МНГ_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/МПС_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/НС_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/ПСДВ_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/СМНМ_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/ЛДГ_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/УНП_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/БДГВ_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/ГВК_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/СО_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/ЗП_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/НКС_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/ВСНБУ_О.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/ПВЗ_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/ССС_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/СНП_Б.png</t>
-  </si>
-  <si>
-    <t>idioms/idioms_1/СС_О.png</t>
+    <t>Горькая участь</t>
+  </si>
+  <si>
+    <t>Знак свыше</t>
+  </si>
+  <si>
+    <t>Длинный язык</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/БЧ_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ГНРЯ_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/МНБК_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/МНГ_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/МПС_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ПСДВ_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/НС_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/СМНМ_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ЛДГ_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/УНП_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/БДГВ_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ГВК_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/СО_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ЗП_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ГУ_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ЗС_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ДД_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/ДЯ_Б.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/СНП_О.png</t>
+  </si>
+  <si>
+    <t>idioms/idioms_2/СС_Б.png</t>
   </si>
 </sst>
 </file>
@@ -505,13 +505,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,10 +519,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,10 +530,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -541,10 +541,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -552,10 +552,10 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -563,32 +563,32 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -607,10 +607,10 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -618,10 +618,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,10 +640,10 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,10 +651,10 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,10 +662,10 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,10 +673,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,10 +684,10 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,10 +695,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,10 +706,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,10 +728,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tables/idioms1_cond1.xlsx
+++ b/tables/idioms1_cond1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Вуз\Диплом\Program\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60385CCE-E984-455C-93C2-74B343821E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9652B5A2-3024-43F1-81BF-F78CC797296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Глаза в кучу</t>
   </si>
   <si>
-    <t>Пробел в знаниях</t>
-  </si>
-  <si>
     <t>idioma_answer_path</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>idioms/idioms_2/СС_Б.png</t>
+  </si>
+  <si>
+    <t>Двойное дно</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,233 +505,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
